--- a/projects/self-assessment.xlsx
+++ b/projects/self-assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100026701\Box Sync\Learning\mit-leadership\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://danaher-my.sharepoint.com/personal/donal_phipps_cytiva_com/Documents/Learning/mit-leadership/projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31320145-C56B-4BA7-A5CB-F7BA5172A734}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{31320145-C56B-4BA7-A5CB-F7BA5172A734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B17D061C-5DA3-4442-9E23-DFF4E7014662}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20B7F993-9280-4D72-81ED-4AED78DB5183}"/>
+    <workbookView xWindow="9360" yWindow="1580" windowWidth="29040" windowHeight="15840" xr2:uid="{20B7F993-9280-4D72-81ED-4AED78DB5183}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="1" r:id="rId1"/>
@@ -45,58 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>1: Not at all skilled
-2: Not particularly skilled
-3: Skilled
-4: Exceptionall skilled</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{DD224904-7D03-4528-B35F-0D22218D7F39}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>1: Not at all skilled
-2: Not particularly skilled
-3: Skilled
-4: Exceptionall skilled</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{957E0197-1444-4ACE-8894-EE14956CCDA7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>1: Not at all skilled
-2: Not particularly skilled
-3: Skilled
-4: Exceptionall skilled</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{EA3AEEA5-7988-4AE9-98B0-ED13C38B6665}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1: Not at all skilled
 2: Not particularly skilled
@@ -110,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Sensemaking</t>
   </si>
@@ -160,18 +109,6 @@
     <t>4) Experimenting</t>
   </si>
   <si>
-    <t>1) Sub-dim 1</t>
-  </si>
-  <si>
-    <t>2) Sub-dim 2</t>
-  </si>
-  <si>
-    <t>3) Sub-dim 3</t>
-  </si>
-  <si>
-    <t>4) Sub-dim 4</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -219,6 +156,21 @@
   <si>
     <t>How well do you engage in dialogue about the vision and encourage others to identify their own role in achieving it?</t>
   </si>
+  <si>
+    <t>1) Execution</t>
+  </si>
+  <si>
+    <t>2) Creating a learning culture</t>
+  </si>
+  <si>
+    <t>3) Making tough decisions</t>
+  </si>
+  <si>
+    <t>4) Managing Change</t>
+  </si>
+  <si>
+    <t>How well do you operate with "ambiguity" - balancing execution of goals and checking your situation?</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +204,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -307,7 +259,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -592,7 +544,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -796,7 +748,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1006,7 +958,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1053,16 +1005,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1) Sub-dim 1</c:v>
+                  <c:v>1) Execution</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2) Sub-dim 2</c:v>
+                  <c:v>2) Creating a learning culture</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3) Sub-dim 3</c:v>
+                  <c:v>3) Making tough decisions</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4) Sub-dim 4</c:v>
+                  <c:v>4) Managing Change</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1216,7 +1168,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1451,7 +1403,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1684,7 +1636,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1919,7 +1871,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4352,7 +4304,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="145256" y="178594"/>
-          <a:ext cx="8957469" cy="8863352"/>
+          <a:ext cx="9790906" cy="8863352"/>
           <a:chOff x="7155656" y="-345281"/>
           <a:chExt cx="8893969" cy="8863352"/>
         </a:xfrm>
@@ -5382,17 +5334,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AC9FA3-2F9D-419E-86B9-866CE89D9BF1}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="128" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5400,13 +5354,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5420,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5434,7 +5388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5448,7 +5402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5462,7 +5416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -5476,10 +5430,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5487,67 +5441,67 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5559,10 +5513,10 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -5570,53 +5524,53 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -5628,10 +5582,10 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -5639,59 +5593,63 @@
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -5703,28 +5661,28 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="2"/>
     </row>
   </sheetData>
@@ -5742,7 +5700,7 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/projects/self-assessment.xlsx
+++ b/projects/self-assessment.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://danaher-my.sharepoint.com/personal/donal_phipps_cytiva_com/Documents/Learning/mit-leadership/projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{31320145-C56B-4BA7-A5CB-F7BA5172A734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B17D061C-5DA3-4442-9E23-DFF4E7014662}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{31320145-C56B-4BA7-A5CB-F7BA5172A734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D752C9A5-1611-5842-A980-C324A8E1119F}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="1580" windowWidth="29040" windowHeight="15840" xr2:uid="{20B7F993-9280-4D72-81ED-4AED78DB5183}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20020" activeTab="1" xr2:uid="{20B7F993-9280-4D72-81ED-4AED78DB5183}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="1" r:id="rId1"/>
-    <sheet name="Signature" sheetId="2" r:id="rId2"/>
+    <sheet name="My goals" sheetId="3" r:id="rId2"/>
+    <sheet name="Signature" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'My goals'!$A$1:$D$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,14 +47,44 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1: Not at all skilled
-2: Not particularly skilled
-3: Skilled
-4: Exceptionall skilled</t>
+          <t xml:space="preserve">1: Not at all skilled
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: Not particularly skilled
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: Skilled
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4: Exceptionall skilled</t>
         </r>
       </text>
     </comment>
@@ -59,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>Sensemaking</t>
   </si>
@@ -171,6 +205,18 @@
   <si>
     <t>How well do you operate with "ambiguity" - balancing execution of goals and checking your situation?</t>
   </si>
+  <si>
+    <t>How well do you encourage experimentation, learning and make people feel safe and free from blame?</t>
+  </si>
+  <si>
+    <t>How decisive are you in service of your higher goals? Can you avoid getting "bogged down" as the number of decision to be made increases?</t>
+  </si>
+  <si>
+    <t>How well do you plan for change and bring other people with you?</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
 </sst>
 </file>
 
@@ -202,7 +248,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -463,7 +509,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -609,13 +655,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,7 +712,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -876,7 +922,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1026,16 +1072,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,7 +1132,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1997,7 +2043,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4735,8 +4781,8 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="7415878" y="1023938"/>
-          <a:ext cx="545986" cy="3235098"/>
+          <a:off x="7415878" y="1428750"/>
+          <a:ext cx="545986" cy="2830286"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4758,8 +4804,8 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="11953859" y="1023938"/>
-          <a:ext cx="545985" cy="3235098"/>
+          <a:off x="11953859" y="1412874"/>
+          <a:ext cx="545985" cy="2846161"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4781,8 +4827,8 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="7415878" y="4915581"/>
-          <a:ext cx="545986" cy="3235098"/>
+          <a:off x="7415878" y="5349875"/>
+          <a:ext cx="545986" cy="2800804"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4804,8 +4850,8 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="11953859" y="4915581"/>
-          <a:ext cx="545985" cy="3235098"/>
+          <a:off x="11953859" y="5254625"/>
+          <a:ext cx="545985" cy="2896054"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5334,8 +5380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AC9FA3-2F9D-419E-86B9-866CE89D9BF1}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5536,7 +5582,7 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
@@ -5564,7 +5610,7 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>31</v>
@@ -5605,7 +5651,7 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>36</v>
@@ -5619,10 +5665,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -5633,9 +5679,11 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -5645,9 +5693,11 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -5657,7 +5707,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -5693,11 +5743,257 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51AD3E6-3293-D74E-8BC6-6881213242C9}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D17" xr:uid="{8AF13290-474E-ED4B-A930-67C2DCD5D425}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0051D521-F2FA-44D1-8443-2892642BA50F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/self-assessment.xlsx
+++ b/projects/self-assessment.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://danaher-my.sharepoint.com/personal/donal_phipps_cytiva_com/Documents/Learning/mit-leadership/projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{31320145-C56B-4BA7-A5CB-F7BA5172A734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D752C9A5-1611-5842-A980-C324A8E1119F}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{31320145-C56B-4BA7-A5CB-F7BA5172A734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4831381C-37EB-7B4A-B9BF-9BAC75ECDB89}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20020" activeTab="1" xr2:uid="{20B7F993-9280-4D72-81ED-4AED78DB5183}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{20B7F993-9280-4D72-81ED-4AED78DB5183}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="1" r:id="rId1"/>
-    <sheet name="My goals" sheetId="3" r:id="rId2"/>
-    <sheet name="Signature" sheetId="2" r:id="rId3"/>
+    <sheet name="Signature" sheetId="2" r:id="rId2"/>
+    <sheet name="My goals" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'My goals'!$A$1:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'My goals'!$A$1:$D$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5380,7 +5380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AC9FA3-2F9D-419E-86B9-866CE89D9BF1}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -5743,11 +5743,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0051D521-F2FA-44D1-8443-2892642BA50F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W41" sqref="W41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51AD3E6-3293-D74E-8BC6-6881213242C9}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5986,19 +6001,4 @@
   <autoFilter ref="A1:D17" xr:uid="{8AF13290-474E-ED4B-A930-67C2DCD5D425}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0051D521-F2FA-44D1-8443-2892642BA50F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>